--- a/biology/Botanique/Diospyros_guianensis/Diospyros_guianensis.xlsx
+++ b/biology/Botanique/Diospyros_guianensis/Diospyros_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyros guianensis est une espèce de plantes à fleurs de la famille des Ebenaceae. C'est un arbre d'origine sud-américaine.
-En Guyane il est connu sous les noms de Baaka tiki (Nenge tongo)[4], Mɨkulapi'a u (Wayãpi), Miret (Palikur), Mekolonohunu (Wayana), Tarara, Parala (Kali'na)[5].
-Au Venezuela, la sous-espèce D. guianensis subsp. guianensis est appelée Aracho, Baravara, Carbón, Iboru, Jiboru[6].
+En Guyane il est connu sous les noms de Baaka tiki (Nenge tongo), Mɨkulapi'a u (Wayãpi), Miret (Palikur), Mekolonohunu (Wayana), Tarara, Parala (Kali'na).
+Au Venezuela, la sous-espèce D. guianensis subsp. guianensis est appelée Aracho, Baravara, Carbón, Iboru, Jiboru.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Diospyros guianensis est un arbre de taille moyenne ou grande, haut de 6-25 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros guianensis est un arbre de taille moyenne ou grande, haut de 6-25 m.
 Les jeunes rameaux sont tomenteux-ferrugineux.
-Le bois est dur, de couleur blanche[7], jaunâtre, à grain assez fin, mi-lourd à lourd (densité : 0,70 à 1)[4].
+Le bois est dur, de couleur blanche, jaunâtre, à grain assez fin, mi-lourd à lourd (densité : 0,70 à 1).
 Les feuilles sont simples, alternes, coriaces, pétiolées.
 Le limbe mesure 13–20 × 4–10 cm, et est de forme  elliptique à elliptique-oblongue, avec l'apex aigu à courtement acuminé, et à base obtuse.
 La face inférieure est de teinte semblable à la face supérieure, et porte des trichomes caducs, lâches, épars, roux-brun à hispiduleux avec une nervation moins visible.
@@ -528,12 +542,8 @@
 La corolle forme un tube cylindrique avec 4 lobes ovales-aigus.
 On compte environ 13-18 étamines, à filets très courts.
 L'ovaire contient 8 loges.
-Le fruit est glabre, globuleux, de 24-28 mm de diamètre, lisse, luisant, et contenant 3-4 graines[8],[6].
-Taxon infra-spécifiques
-On distingue 3 sous-espèces dans Diospyros guianensis :
-Diospyros guianensis subsp. akaraiensis (A.C.Sm.) F.White[9]
-Diospyros guianensis subsp. coriacea F. White (nom correct = Diospyros tepu B. Walln.[10])
-Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 est un arbre atteignant 25 m de haut. Les feuilles sont coriaces ou chartacées, mesurant 9–15 × 4–7 cm, vert terne sur la face inférieure. Le calice est de couleur verte, à base brun ferrugineux. La corolle est de couleur jaunâtre. Les fruits sont parfois couverts d'une pruine glauque, et contiennent environ 7 graines[6].</t>
+Le fruit est glabre, globuleux, de 24-28 mm de diamètre, lisse, luisant, et contenant 3-4 graines,.
+</t>
         </is>
       </c>
     </row>
@@ -558,14 +568,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diospyros guianensis est présent au Venezuela, au Guyana, au Suriname, en Guyane, et au Brésil[6].
-La sous-espèce Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 est présente du Venezuela (Delta Amacuro, Amazonas, Aragua) au Brésil en passant par le Guyana, le Suriname, et la Guyane[6].
-</t>
+          <t>Taxon infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On distingue 3 sous-espèces dans Diospyros guianensis :
+Diospyros guianensis subsp. akaraiensis (A.C.Sm.) F.White
+Diospyros guianensis subsp. coriacea F. White (nom correct = Diospyros tepu B. Walln.)
+Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 est un arbre atteignant 25 m de haut. Les feuilles sont coriaces ou chartacées, mesurant 9–15 × 4–7 cm, vert terne sur la face inférieure. Le calice est de couleur verte, à base brun ferrugineux. La corolle est de couleur jaunâtre. Les fruits sont parfois couverts d'une pruine glauque, et contiennent environ 7 graines.</t>
         </is>
       </c>
     </row>
@@ -590,14 +607,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diospyros guianensis est un arbre commun dans l'ouest et le nord de la Guyane[5], que l'on rencontre au bord des cours d'eau, notamment dans les sauts, et qui est abondant dans les zones élevées des forêts marécageuses[11].
-La sous-espèce Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 pousse au Venezuela dans les savanes humides, les forêts sempervirentes de basse altitude, forêts ripicoles inondées de façon saisonnière, autour de 0–300 m d'altitude[6].
-Les fruits de Diospyros guianensis sont consommés par le poisson Myleus rhomboidalis (Characidae)[12].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros guianensis est présent au Venezuela, au Guyana, au Suriname, en Guyane, et au Brésil.
+La sous-espèce Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 est présente du Venezuela (Delta Amacuro, Amazonas, Aragua) au Brésil en passant par le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -623,14 +641,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jus de feuilles de Diospyros guianensis pilées avec du pétrole est employé pour soigner l'eczéma, chez les habitants du Maroni (Wayana, Aluku et quelques orpailleurs Créoles). Cette utilisation est possiblement liée aux naphtoquinones qui présentent des propriétés provitaminique K[5].
-L'extrait de Diospyros guianensis contient du  Méthyl-7-juglone, du Lupéol, du Bétulinol et de l'Acide bétulinique[13], présente une activité antifongique significative sur Candida albicans[14], et ses effets sur Streptococcus mutans ont été testés[15].
-Au Venezuela, la décoction d'écorce de Diospyros guianensis subsp. guianensis soigne la fièvre. Le fruit apaise les piqûres et les démangeaisons, et sert pour la pêche à la nivrée[6].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diospyros guianensis est un arbre commun dans l'ouest et le nord de la Guyane, que l'on rencontre au bord des cours d'eau, notamment dans les sauts, et qui est abondant dans les zones élevées des forêts marécageuses.
+La sous-espèce Diospyros guianensis subsp. guianensis (Aubl.) Gürke, 1891 pousse au Venezuela dans les savanes humides, les forêts sempervirentes de basse altitude, forêts ripicoles inondées de façon saisonnière, autour de 0–300 m d'altitude.
+Les fruits de Diospyros guianensis sont consommés par le poisson Myleus rhomboidalis (Characidae).
 </t>
         </is>
       </c>
@@ -656,12 +676,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jus de feuilles de Diospyros guianensis pilées avec du pétrole est employé pour soigner l'eczéma, chez les habitants du Maroni (Wayana, Aluku et quelques orpailleurs Créoles). Cette utilisation est possiblement liée aux naphtoquinones qui présentent des propriétés provitaminique K.
+L'extrait de Diospyros guianensis contient du  Méthyl-7-juglone, du Lupéol, du Bétulinol et de l'Acide bétulinique, présente une activité antifongique significative sur Candida albicans, et ses effets sur Streptococcus mutans ont été testés.
+Au Venezuela, la décoction d'écorce de Diospyros guianensis subsp. guianensis soigne la fièvre. Le fruit apaise les piqûres et les démangeaisons, et sert pour la pêche à la nivrée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diospyros_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diospyros_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[16] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PARALEA Guianenſis. (Tabula 231.) 
 Arbor altiſſima, ad cacumen trunci ramoſa, ramis numeroſus, hínc &amp; hidè ſparſis ; ramusculis pubeſcentibus. Folia alterna, brevi petiolata, integerrima, glabra, ad oras tomentoſa, ovato-oblonga, acuta. Flores plurimi, taſciculati, axillares, diſtincti ; squamis villoſus, rufeſcentibus. Calix piloſus, rufeſcens. Corolla fulva, carnoſa, gratum ſpirans odorem.
 Florebat Octobri.
